--- a/StructureDefinition-profile-NutritionOrder.xlsx
+++ b/StructureDefinition-profile-NutritionOrder.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8611553-06:00</t>
+    <t>2026-02-20T11:59:20.8973378-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/NutritionOrder|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/NutritionOrder</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,7 +462,7 @@
     <t>groupIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.groupIdentifier|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.groupIdentifier}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>priority</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.priority|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.priority}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.performer|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.performer}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>outsideFoodAllowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.outsideFoodAllowed|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.outsideFoodAllowed}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -767,6 +767,130 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>NutritionOrder.patient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>NutritionOrder.patient.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>NutritionOrder.patient.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for NutritionOrder.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `NutritionOrder.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `NutritionOrder.subject` has is mapped to FHIR R4 element `NutritionOrder.patient`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>NutritionOrder.patient.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>NutritionOrder.patient.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>NutritionOrder.patient.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>NutritionOrder.patient.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>NutritionOrder.encounter</t>
   </si>
   <si>
@@ -936,35 +1060,16 @@
     <t>NutritionOrder.oralDiet.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>NutritionOrder.oralDiet.extension</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>NutritionOrder.oralDiet.extension:oralDiet</t>
   </si>
   <si>
     <t>oralDiet</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.oralDiet|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.oralDiet}
 </t>
   </si>
   <si>
@@ -1228,7 +1333,7 @@
     <t>supplement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.supplement|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.supplement}
 </t>
   </si>
   <si>
@@ -1331,7 +1436,7 @@
     <t>enteralFormula</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.enteralFormula|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-NutritionOrder.enteralFormula}
 </t>
   </si>
   <si>
@@ -1417,9 +1522,6 @@
   </si>
   <si>
     <t>The route or physiological path of administration into the patient's gastrointestinal  tract for purposes of providing the formula feeding, e.g. nasogastric tube.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying the route of administration of enteral formula.</t>
@@ -1839,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1858,7 +1960,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1876,7 +1978,7 @@
     <col min="26" max="26" width="45.16015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="47.79296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4610,7 +4712,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4622,27 +4724,27 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AN24" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4653,7 +4755,7 @@
         <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4662,16 +4764,16 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4710,59 +4812,61 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -4774,18 +4878,20 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4834,39 +4940,39 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4877,7 +4983,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4886,19 +4992,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4948,16 +5054,16 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>102</v>
@@ -4969,7 +5075,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4977,10 +5083,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4991,7 +5097,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5000,19 +5106,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5038,13 +5144,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5062,13 +5168,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5080,10 +5186,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5091,10 +5197,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5105,7 +5211,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5114,19 +5220,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5152,13 +5258,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5176,13 +5282,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5197,7 +5303,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5205,10 +5311,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5228,18 +5334,20 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5288,7 +5396,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5297,7 +5405,7 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
@@ -5306,10 +5414,10 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5317,10 +5425,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5343,13 +5451,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5400,7 +5508,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5412,27 +5520,27 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5440,10 +5548,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5452,16 +5560,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5500,53 +5608,53 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5564,20 +5672,18 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5626,43 +5732,43 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5675,26 +5781,24 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5742,7 +5846,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5754,7 +5858,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5763,7 +5867,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5771,10 +5875,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5794,18 +5898,20 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5830,13 +5936,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5854,7 +5960,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5869,7 +5975,7 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>318</v>
@@ -5878,19 +5984,19 @@
         <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5909,15 +6015,17 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5942,13 +6050,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5966,7 +6074,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5981,13 +6089,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>133</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5995,10 +6103,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6009,7 +6117,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6021,13 +6129,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6078,16 +6186,16 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>102</v>
@@ -6096,10 +6204,10 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6107,10 +6215,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6133,13 +6241,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6190,7 +6298,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6211,7 +6319,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6219,14 +6327,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6248,14 +6356,12 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6292,19 +6398,17 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6325,7 +6429,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6333,46 +6437,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6420,7 +6524,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6429,7 +6533,7 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>141</v>
@@ -6441,7 +6545,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6449,42 +6553,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6508,13 +6616,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6532,39 +6640,39 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6575,7 +6683,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6584,10 +6692,10 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>346</v>
@@ -6620,13 +6728,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6644,13 +6752,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6659,28 +6767,28 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6699,13 +6807,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6756,7 +6864,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6771,13 +6879,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6785,10 +6893,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6799,7 +6907,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6811,13 +6919,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6868,28 +6976,28 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -6897,21 +7005,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -6923,17 +7031,15 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6982,19 +7088,19 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7003,7 +7109,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7011,14 +7117,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>308</v>
+        <v>179</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7031,26 +7137,24 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7098,7 +7202,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7119,7 +7223,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7127,44 +7231,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7188,13 +7294,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7212,28 +7318,28 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7241,10 +7347,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7267,17 +7373,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7302,13 +7406,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7326,7 +7430,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7341,24 +7445,24 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7369,7 +7473,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7381,13 +7485,13 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7414,13 +7518,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7438,13 +7542,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7453,13 +7557,13 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7467,10 +7571,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7481,7 +7585,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7490,20 +7594,18 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7552,13 +7654,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7567,13 +7669,13 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7581,10 +7683,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7595,7 +7697,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7607,13 +7709,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>243</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7664,28 +7766,28 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>385</v>
+        <v>246</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7693,21 +7795,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7719,15 +7821,17 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7776,19 +7880,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -7797,7 +7901,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7805,14 +7909,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7825,22 +7929,26 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -7876,17 +7984,19 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7907,7 +8017,7 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -7915,14 +8025,12 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C54" t="s" s="2">
         <v>389</v>
       </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -7931,7 +8039,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -7943,13 +8051,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>392</v>
@@ -7978,13 +8086,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8002,28 +8110,28 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8031,46 +8139,44 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8094,13 +8200,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8118,28 +8224,28 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>133</v>
+        <v>401</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8147,10 +8253,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8161,7 +8267,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8170,16 +8276,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8206,13 +8312,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8230,13 +8336,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8245,24 +8351,24 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8282,18 +8388,20 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8342,7 +8450,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8357,13 +8465,13 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>192</v>
+        <v>413</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8371,14 +8479,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8397,13 +8505,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8454,7 +8562,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8463,19 +8571,19 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8483,10 +8591,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8509,13 +8617,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>345</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>409</v>
+        <v>243</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8566,7 +8674,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>408</v>
+        <v>245</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8578,16 +8686,16 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>348</v>
+        <v>246</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8595,10 +8703,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8609,7 +8717,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8618,20 +8726,18 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8668,40 +8774,38 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>249</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8709,12 +8813,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8723,7 +8829,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8735,15 +8841,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>288</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8792,28 +8900,28 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>415</v>
+        <v>249</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -8821,42 +8929,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8904,19 +9016,19 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -8925,7 +9037,7 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -8933,10 +9045,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8947,7 +9059,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -8956,16 +9068,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>136</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>137</v>
+        <v>429</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8992,65 +9104,65 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9071,17 +9183,15 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>242</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9130,28 +9240,28 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>301</v>
+        <v>433</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9159,14 +9269,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9179,26 +9289,22 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>309</v>
+        <v>437</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9246,7 +9352,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>311</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9258,16 +9364,16 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>133</v>
+        <v>440</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9275,10 +9381,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9298,16 +9404,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9334,13 +9440,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9358,7 +9464,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9373,24 +9479,24 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9410,18 +9516,20 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9470,7 +9578,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9485,13 +9593,13 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>192</v>
+        <v>413</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -9499,10 +9607,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9525,13 +9633,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9558,13 +9666,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -9582,7 +9690,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9591,30 +9699,30 @@
         <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>318</v>
+        <v>451</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9637,13 +9745,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>243</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>445</v>
+        <v>244</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9694,7 +9802,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9706,16 +9814,16 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -9723,10 +9831,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9737,7 +9845,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -9749,13 +9857,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>136</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
+        <v>137</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9794,40 +9902,38 @@
         <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -9835,12 +9941,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>80</v>
       </c>
@@ -9861,15 +9969,17 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>272</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -9894,13 +10004,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -9918,28 +10028,28 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>450</v>
+        <v>249</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -9947,14 +10057,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9967,24 +10077,26 @@
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>459</v>
+        <v>343</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10032,7 +10144,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>457</v>
+        <v>344</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10044,16 +10156,16 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>461</v>
+        <v>133</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10061,10 +10173,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10084,16 +10196,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>296</v>
+        <v>462</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>297</v>
+        <v>463</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10120,13 +10232,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10144,7 +10256,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>298</v>
+        <v>461</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10156,38 +10268,38 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>299</v>
+        <v>466</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10199,17 +10311,15 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10258,28 +10368,28 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>301</v>
+        <v>467</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -10287,46 +10397,42 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>309</v>
+        <v>471</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10350,13 +10456,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10374,43 +10480,43 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>311</v>
+        <v>470</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>133</v>
+        <v>475</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10429,13 +10535,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10486,7 +10592,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10501,13 +10607,13 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>468</v>
+        <v>133</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -10515,10 +10621,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10541,13 +10647,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10598,7 +10704,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10616,10 +10722,10 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -10627,10 +10733,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10653,17 +10759,15 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -10688,13 +10792,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -10712,7 +10816,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10730,10 +10834,10 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -10741,10 +10845,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10755,7 +10859,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -10767,15 +10871,17 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -10824,13 +10930,13 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
@@ -10842,10 +10948,10 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -10853,10 +10959,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10876,20 +10982,18 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>484</v>
+        <v>243</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -10938,7 +11042,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>483</v>
+        <v>245</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10950,16 +11054,16 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -10967,14 +11071,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10993,16 +11097,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>487</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>489</v>
+        <v>182</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11052,7 +11156,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>486</v>
+        <v>249</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11064,18 +11168,812 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AK83" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>80</v>
       </c>
     </row>
